--- a/src/assets/image_dimensions.xlsx
+++ b/src/assets/image_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CrystalSadder\photography\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A997949-7956-418C-82F8-9B672BCEB21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61860A42-4789-416F-9E31-12C2C14F30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Filename</t>
   </si>
@@ -52,6 +52,15 @@
     <t>FP 4 large conf jpg-X3.jpg</t>
   </si>
   <si>
+    <t>Frisco-15.tif</t>
+  </si>
+  <si>
+    <t>Frisco-45.tif</t>
+  </si>
+  <si>
+    <t>Frisco-58.tif</t>
+  </si>
+  <si>
     <t>Heifer-6.jpg</t>
   </si>
   <si>
@@ -73,6 +82,18 @@
     <t>i-WNkLZFq-4K.jpg</t>
   </si>
   <si>
+    <t>image1.jpg</t>
+  </si>
+  <si>
+    <t>IMG_9994.JPG</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>me.jpg</t>
+  </si>
+  <si>
     <t>Paris Paul Cezanne-22.jpg</t>
   </si>
   <si>
@@ -106,7 +127,13 @@
     <t>WF Glendale final - jpg-7.jpg</t>
   </si>
   <si>
+    <t>WF Sendero Marketplace Exterior -7.tif</t>
+  </si>
+  <si>
     <t>_DSC5194-Edit.jpg</t>
+  </si>
+  <si>
+    <t>Frisco-43.jpg</t>
   </si>
 </sst>
 </file>
@@ -128,12 +155,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -163,11 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,18 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +537,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -514,7 +548,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -525,7 +559,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -536,7 +570,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -547,7 +581,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -558,7 +592,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -569,75 +603,75 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9">
+        <v>8244</v>
+      </c>
+      <c r="C9">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>8256</v>
+      </c>
+      <c r="C10">
         <v>5504</v>
       </c>
-      <c r="C9">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7737</v>
+      </c>
+      <c r="C11">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>8256</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
+      <c r="C12">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5504</v>
+      </c>
+      <c r="C13">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>4959</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>7439</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3840</v>
-      </c>
-      <c r="C11">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>3840</v>
-      </c>
-      <c r="C12">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1600</v>
-      </c>
-      <c r="C13">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1600</v>
-      </c>
-      <c r="C14">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
       </c>
       <c r="B15">
         <v>3840</v>
@@ -646,20 +680,20 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3840</v>
+      </c>
+      <c r="C16">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
-      </c>
-      <c r="B16">
-        <v>4077</v>
-      </c>
-      <c r="C16">
-        <v>4077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
       </c>
       <c r="B17">
         <v>1600</v>
@@ -668,117 +702,217 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B19">
+        <v>3840</v>
+      </c>
+      <c r="C19">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>6032</v>
+      </c>
+      <c r="C20">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>3448</v>
+      </c>
+      <c r="C21">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>460</v>
+      </c>
+      <c r="C22">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>3448</v>
+      </c>
+      <c r="C23">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>4077</v>
+      </c>
+      <c r="C24">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1600</v>
+      </c>
+      <c r="C25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>1280</v>
       </c>
-      <c r="C18">
+      <c r="C26">
         <v>854</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>3191</v>
       </c>
-      <c r="C19">
+      <c r="C27">
         <v>2127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>5504</v>
       </c>
-      <c r="C20">
+      <c r="C28">
         <v>8256</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
         <v>1600</v>
       </c>
-      <c r="C21">
+      <c r="C29">
         <v>1068</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
         <v>1600</v>
       </c>
-      <c r="C22">
+      <c r="C30">
         <v>1068</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>6192</v>
       </c>
-      <c r="C23">
+      <c r="C31">
         <v>4128</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>5076</v>
       </c>
-      <c r="C24">
+      <c r="C32">
         <v>3384</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
         <v>5504</v>
       </c>
-      <c r="C25">
+      <c r="C33">
         <v>5504</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
         <v>7362</v>
       </c>
-      <c r="C26">
+      <c r="C34">
         <v>4908</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>8256</v>
+      </c>
+      <c r="C35">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>6032</v>
       </c>
-      <c r="C27">
+      <c r="C36">
         <v>4021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>